--- a/SNAP_Worfkflow_Validation.xlsx
+++ b/SNAP_Worfkflow_Validation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus 40\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus 40\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87DB4C2-7769-4799-8254-067299A1FEA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E70CBFD-56D1-4258-88B6-757AA19FEA5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,13 +400,13 @@
     <t>Rejected</t>
   </si>
   <si>
+    <t>Inavalid Test Step</t>
+  </si>
+  <si>
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>Test Steps missing</t>
-  </si>
-  <si>
-    <t>Invalid Test Case</t>
+    <t>Missing Test Steps</t>
   </si>
 </sst>
 </file>
@@ -786,7 +786,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
